--- a/medicine/Enfance/Biscoto_(journal)/Biscoto_(journal).xlsx
+++ b/medicine/Enfance/Biscoto_(journal)/Biscoto_(journal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Biscoto est une maison d'édition et un journal mensuel indépendant de bande dessinée pour enfants, basé à Angoulême et diffusé en France, Belgique, Suisse et au Canada. Lancé en janvier 2013, il reçoit quatre ans plus tard le prix de la bande dessinée alternative lors du festival d'Angoulême 2017.
@@ -512,16 +524,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier numéro de Biscoto est paru en janvier 2013. Biscoto a été créé par Julie Staebler et Suzanne Arhex[1],[2],[3],[4].
-Biscoto est un journal format tabloïd, imprimé sur papier journal : « comme [un journal] pour les grands, mais sans mauvaises nouvelles dedans[5] ».
-À l'intérieur du journal on trouve des histoires illustrées, des bandes dessinées, des blagues, des tests, des jeux, des documentaires, un feuilleton… toujours en lien avec le thème du mois[6],[7].
-L'équipe est attentive aux principes anti-sexistes et aux discriminations socio-culturelles[8]. En outre, les personnages qui apparaissent dans le journal ne sont pas hyper-sexualisés et ne recouvrent pas des rôles stéréotypés[9].
-Biscoto est un journal associatif et indépendant, et ne contient aucune publicité[10],[11].
-En septembre 2015, les éditions Biscoto publient leur premier livre Francis Saucisson contre l'âge bête de Nicolas Pinet, une bande dessinée qui paraissait en feuilleton dans le journal[12],[13]. La préface du livre est signée par Emmanuel Guibert[14].
-Depuis 2017, les éditions Biscoto publient régulièrement des livres illustrés et des bandes dessinées. Le Meilleurissime Repaire de la Terre d'Oriane Lassus, figurait dans la sélection jeunesse du Festival international de la bande dessinée d'Angoulême en 2018[15], une exposition lui était également consacrée[16].
-En janvier 2017, Biscoto reçoit le prix de la bande dessinée alternative du festival d'Angoulême 2017[17].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier numéro de Biscoto est paru en janvier 2013. Biscoto a été créé par Julie Staebler et Suzanne Arhex.
+Biscoto est un journal format tabloïd, imprimé sur papier journal : « comme [un journal] pour les grands, mais sans mauvaises nouvelles dedans ».
+À l'intérieur du journal on trouve des histoires illustrées, des bandes dessinées, des blagues, des tests, des jeux, des documentaires, un feuilleton… toujours en lien avec le thème du mois,.
+L'équipe est attentive aux principes anti-sexistes et aux discriminations socio-culturelles. En outre, les personnages qui apparaissent dans le journal ne sont pas hyper-sexualisés et ne recouvrent pas des rôles stéréotypés.
+Biscoto est un journal associatif et indépendant, et ne contient aucune publicité,.
+En septembre 2015, les éditions Biscoto publient leur premier livre Francis Saucisson contre l'âge bête de Nicolas Pinet, une bande dessinée qui paraissait en feuilleton dans le journal,. La préface du livre est signée par Emmanuel Guibert.
+Depuis 2017, les éditions Biscoto publient régulièrement des livres illustrés et des bandes dessinées. Le Meilleurissime Repaire de la Terre d'Oriane Lassus, figurait dans la sélection jeunesse du Festival international de la bande dessinée d'Angoulême en 2018, une exposition lui était également consacrée.
+En janvier 2017, Biscoto reçoit le prix de la bande dessinée alternative du festival d'Angoulême 2017.
 En septembre 2018, Biscoto change de formule et passe de 16 à 20 pages.
 En septembre 2021, Biscoto augmente encore sa pagination et passe à 24 pages.
 </t>
@@ -552,7 +566,9 @@
           <t>Autrices et auteurs publiés (livres)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">• Laurie Agusti
 • Marine Blandin
